--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2820.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2820.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.175786518340054</v>
+        <v>0.902067244052887</v>
       </c>
       <c r="B1">
-        <v>2.440417453134715</v>
+        <v>1.83492386341095</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.172513961791992</v>
       </c>
       <c r="D1">
-        <v>2.362848130078045</v>
+        <v>3.418251276016235</v>
       </c>
       <c r="E1">
-        <v>1.233779128981418</v>
+        <v>1.492251753807068</v>
       </c>
     </row>
   </sheetData>
